--- a/branches/iit-resource_fig-60/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/iit-resource_fig-60/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T12:58:17+00:00</t>
+    <t>2023-03-02T13:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/iit-resource_fig-60/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/iit-resource_fig-60/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:09:37+00:00</t>
+    <t>2023-03-02T13:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/iit-resource_fig-60/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/iit-resource_fig-60/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:11:41+00:00</t>
+    <t>2023-03-03T12:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/iit-resource_fig-60/StructureDefinition-date-hiv-test-done.xlsx
+++ b/branches/iit-resource_fig-60/StructureDefinition-date-hiv-test-done.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:25:55+00:00</t>
+    <t>2023-03-03T12:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
